--- a/data/new_data_raw_9_.xlsx
+++ b/data/new_data_raw_9_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B359"/>
+  <dimension ref="A1:B324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marsilya</t>
+          <t>Panserraikos</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Olympiakos</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(İY 2 - 0)</t>
+          <t>(İY 0 - 0)</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17-12-23 | Ligue 1 | 16. Hafta | Stat: Stade Orange Vélodrome (63753)</t>
+          <t>18-12-23 | Süper Lig | 14. Hafta | Stat: Dimotiko Stadio Serron</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAÇ SONUCU 22714 MBS 1</t>
+          <t>MAÇ SONUCU 27995 MBS 3</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>6.80</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>4.18</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>1.18</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ÇIFTE ŞANS 22715 MBS 1</t>
+          <t>ÇIFTE ŞANS 27997 MBS 3</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2.34</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,5 ALT/ÜST 22728 MBS 1</t>
+          <t>1,5 ALT/ÜST 28011 MBS 3</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>3.51</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.06</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1,5 ALT/ÜST 22729 MBS 1</t>
+          <t>2,5 ALT/ÜST 28012 MBS 3</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>1.79</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.50</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2,5 ALT/ÜST 22730 MBS 1</t>
+          <t>4,5 ALT/ÜST 28014 MBS 3</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>4.37</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3,5 ALT/ÜST 22732 MBS 1</t>
+          <t>3,5 ALT/ÜST 28013 MBS 3</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.22</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4,5 ALT/ÜST 22734 MBS 1</t>
+          <t>0,5 ALT/ÜST 28010 MBS 3</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11.25</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1. YARI 1,5 ALT/ÜST 22745 MBS 1</t>
+          <t>1. YARI 1,5 ALT/ÜST 28020 MBS 3</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.26</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.30</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1. YARI 0,5 ALT/ÜST 22742 MBS 1</t>
+          <t>1. YARI 0,5 ALT/ÜST 28019 MBS 3</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.66</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.18</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1. YARI 2,5 ALT/ÜST 22750 MBS 1</t>
+          <t>1. YARI 2,5 ALT/ÜST 28021 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>5.48</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1. YARI ÇIFTE ŞANS 22740 MBS 1</t>
+          <t>1. YARI ÇIFTE ŞANS 28018 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.53</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.28</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1. YARI SONUCU 22739 MBS 1</t>
+          <t>1. YARI SONUCU 28017 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>6.30</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.05</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>1.60</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2. YARI SONUCU 22754 MBS 1</t>
+          <t>2. YARI SONUCU 28024 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>6.26</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.61</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>1.44</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TEK/ÇIFT 22774 MBS 1</t>
+          <t>TEK/ÇIFT 28052 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.63</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.63</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TOPLAM GOL ARALIĞI 22736 MBS 1</t>
+          <t>TOPLAM GOL ARALIĞI 28016 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.48</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.78</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>12.30</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>KARŞILIKLI GOL 22735 MBS 1</t>
+          <t>KARŞILIKLI GOL 28015 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.85</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.46</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>İLK YARI/MAÇ SONUCU 22752 MBS 1</t>
+          <t>İLK YARI/MAÇ SONUCU 28023 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>11.90</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>14.40</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>24.30</t>
+          <t>34.00</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>20.60</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>6.27</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>18.95</t>
+          <t>19.80</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>23.00</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>12.55</t>
+          <t>3.40</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>10.60</t>
+          <t>1.71</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>HND. MS (0:2) 22716 MBS 1</t>
+          <t>HND. MS (0:1) 27998 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>18.80</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>6.87</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>+2h</t>
+          <t>+1h</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>HND. MS (0:1) 22718 MBS 1</t>
+          <t>HND. MS (1:0) 27999 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>+1h</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.10</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>+1h</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.76</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>HND. MS (1:0) 22719 MBS 1</t>
+          <t>HND. MS (2:0) 28001 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>+1h</t>
+          <t>+2h</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.48</t>
         </is>
       </c>
     </row>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>3.55</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16.15</t>
+          <t>3.18</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MAÇ SKORU 22756 MBS 1</t>
+          <t>MAÇ SKORU 28032 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>11.15</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>13.75</t>
+          <t>5.23</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>36.50</t>
+          <t>4.99</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>7.03</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>13.20</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>31.00</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>15.45</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>7.71</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>18.90</t>
+          <t>7.11</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>76.00</t>
+          <t>10.05</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>19.00</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>45.00</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>44.50</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>21.15</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>19.10</t>
+          <t>20.85</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>78.00</t>
+          <t>28.50</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>55.00</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>90.00</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>11.15</t>
+          <t>90.00</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>29.50</t>
+          <t>85.00</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>120.00</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>22.60</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>61.00</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>42.50</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>57.00</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>27.00</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>İLK GOL 22720 MBS 1</t>
+          <t>İLK GOL 28002 MBS 3</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>3.01</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>9.66</t>
+          <t>11.05</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>1.13</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>MS VE 2,5 ALT/ÜST 22724 MBS 1</t>
+          <t>MS VE 2,5 ALT/ÜST 28006 MBS 3</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>13.20</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>5.25</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>14.05</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>18.45</t>
+          <t>20.40</t>
         </is>
       </c>
     </row>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>1.82</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MS VE 4,5 ALT/ÜST 22726 MBS 1</t>
+          <t>MS VE 1,5 ALT/ÜST 28004 MBS 3</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>17.50</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>12.55</t>
         </is>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>5.84</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>10.90</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>6.10</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>1.40</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MS VE 3,5 ALT/ÜST 22725 MBS 1</t>
+          <t>MS VE 4,5 ALT/ÜST 28009 MBS 3</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>7.53</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.27</t>
         </is>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>1.41</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>34.00</t>
         </is>
       </c>
     </row>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>18.40</t>
+          <t>34.00</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>32.50</t>
+          <t>5.61</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>MS VE 1,5 ALT/ÜST 22722 MBS 1</t>
+          <t>MS VE 3,5 ALT/ÜST 28008 MBS 3</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>8.28</t>
         </is>
       </c>
     </row>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>5.24</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>15.45</t>
+          <t>1.76</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>34.00</t>
         </is>
       </c>
     </row>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>20.35</t>
         </is>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>3.10</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>1. YARI EN ÇOK KORNER 03710 MBS 1</t>
+          <t>1. YARI DEPLASMAN 0,5 ALT/ÜST 28070 MBS 3</t>
         </is>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>2.02</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>1.38</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12+</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>1. YARI KORNER ARALIĞI 03925 MBS 1</t>
+          <t>EV SAHIBI 2,5 A/Ü 28036 MBS 3</t>
         </is>
       </c>
     </row>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>11.60</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>7+</t>
+          <t>EV SAHIBI 0,5 A/Ü 28033 MBS 3</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>1. YARI DEPLASMAN 0,5 ALT/ÜST 22786 MBS 1</t>
+          <t>1.63</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.63</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>EV SAHIBI 1,5 A/Ü 28035 MBS 3</t>
         </is>
       </c>
     </row>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>TOPLAM KORNER ARALIĞI 03705 MBS 1</t>
+          <t>4.66</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>EN ÇOK GOL OLACAK YARI 28042 MBS 3</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1. Yarı</t>
         </is>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>2.77</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>Eşit</t>
         </is>
       </c>
     </row>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>3.20</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2. Yarı</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>EN ÇOK KORNER 03901 MBS 1</t>
+          <t>1.77</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>DEPLASMAN 2,5 A/Ü 28041 MBS 3</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>1.28</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.26</t>
         </is>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>DEPLASMAN 1,5 A/Ü 28039 MBS 3</t>
         </is>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>1.YARI 4,5 KORNER ALT/ÜST 03723 MBS 1</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>2.12</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>1.32</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>DEPLASMAN 0,5 A/Ü 28038 MBS 3</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>EV SAHIBI 1,5 A/Ü 22758 MBS 1</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>5.61</t>
         </is>
       </c>
     </row>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1. YARI KARŞILIKLI GOL 28066 MBS 3</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>EV SAHIBI 0,5 A/Ü 22757 MBS 1</t>
+          <t>Var</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>4.57</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>Yok</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>EV SAHIBI İKI YARIYI DA KAZANIR 28049 MBS 3</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>EV SAHIBI 2,5 A/Ü 22759 MBS 1</t>
+          <t>Evet</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>13.80</t>
         </is>
       </c>
     </row>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>Hayır</t>
         </is>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>1. YARI EV SAHIBI 0,5 ALT/ÜST 28068 MBS 3</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>EN ÇOK GOL OLACAK YARI 22767 MBS 1</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>1. Yarı</t>
+          <t>1.12</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Eşit</t>
+          <t>2.96</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>DEPLASMAN İKI YARIYI DA KAZANIR 28051 MBS 3</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2. Yarı</t>
+          <t>Evet</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.75</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>DEPLASMAN 1,5 A/Ü 22763 MBS 1</t>
+          <t>Hayır</t>
         </is>
       </c>
     </row>
@@ -3664,357 +3664,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>DEPLASMAN 0,5 A/Ü 22762 MBS 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>DEPLASMAN 2,5 A/Ü 22764 MBS 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>11.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>İLK KORNER 03762 MBS 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>Olmaz</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>26.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>1. YARI KARŞILIKLI GOL 22784 MBS 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>Var</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>EV SAHIBI İKI YARIYI DA KAZANIR 22772 MBS 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>Evet</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>Hayır</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>1. YARI EV SAHIBI 0,5 ALT/ÜST 22785 MBS 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>1.48</t>
+          <t>1.16</t>
         </is>
       </c>
     </row>
